--- a/4.Analysis/Data/raw/day2/phase_003/select_day2_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_003/select_day2_phase_003.xlsx
@@ -1,104 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="114">
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Subject.Name</t>
+  </si>
+  <si>
+    <t>Time_day2</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source.Details</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ever_join_similar</t>
+  </si>
+  <si>
+    <t>ever_SRET</t>
+  </si>
+  <si>
+    <t>ever_AlT</t>
+  </si>
+  <si>
+    <t>ever_ques</t>
+  </si>
+  <si>
+    <t>join_interval</t>
+  </si>
+  <si>
+    <t>going_normal</t>
+  </si>
+  <si>
+    <t>full_screen</t>
+  </si>
+  <si>
+    <t>exit_fullScreen</t>
+  </si>
+  <si>
+    <t>what_problem</t>
+  </si>
+  <si>
+    <t>distrub</t>
+  </si>
+  <si>
+    <t>when_disturb</t>
+  </si>
+  <si>
+    <t>feedbackm</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Moneny</t>
+  </si>
+  <si>
+    <t>Paid_date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	633773426204475392</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve">	MINGLI</t>
@@ -107,43 +109,43 @@
     <t xml:space="preserve">	2023-11-03 12:09:02</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时37分26秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.204.203.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类似的问卷调查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
+    <t>1小时37分26秒</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>直接访问</t>
+  </si>
+  <si>
+    <t>120.204.203.31</t>
+  </si>
+  <si>
+    <t>问题反馈</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>-888</t>
+  </si>
+  <si>
+    <t>类似的问卷调查</t>
+  </si>
+  <si>
+    <t>G.从无</t>
+  </si>
+  <si>
+    <t>A.一切正常</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>-999</t>
+  </si>
+  <si>
+    <t>A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">这个问卷少了一个项目我选没参加，只有三个项目，没有无的选项	</t>
@@ -152,19 +154,19 @@
     <t xml:space="preserve">社交关系	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_003_subj_13</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>phase_003_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	633790726911557632</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">	XXC</t>
@@ -173,10 +175,10 @@
     <t xml:space="preserve">	2023-11-03 15:39:00</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时23分1秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.226.148.210</t>
+    <t>1小时23分1秒</t>
+  </si>
+  <si>
+    <t>120.226.148.210</t>
   </si>
   <si>
     <t xml:space="preserve">实验有点多，最后测试干扰问卷少了一个选项，我没参加过	</t>
@@ -185,13 +187,13 @@
     <t xml:space="preserve">社交能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_2</t>
+    <t>phase_003_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	680051628862078976</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">	惠风龢畅</t>
@@ -200,10 +202,10 @@
     <t xml:space="preserve">	2023-11-02 21:24:26</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时11分30秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.30.234.213</t>
+    <t>1小时11分30秒</t>
+  </si>
+  <si>
+    <t>111.30.234.213</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -212,13 +214,13 @@
     <t xml:space="preserve">测试人在安静情况下得反应能力。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_10</t>
+    <t>phase_003_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	688784182117138432</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">	guozekai</t>
@@ -227,10 +229,10 @@
     <t xml:space="preserve">	2023-11-02 19:13:12</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时29分41秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.185.205.123</t>
+    <t>1小时29分41秒</t>
+  </si>
+  <si>
+    <t>27.185.205.123</t>
   </si>
   <si>
     <t xml:space="preserve">问题反馈中第一题选的否，第二题还让选，这样矛盾了。	</t>
@@ -239,13 +241,13 @@
     <t xml:space="preserve">研究对人们对自己的认知。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_4</t>
+    <t>phase_003_subj_4</t>
   </si>
   <si>
     <t xml:space="preserve">	718581844601208832</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">	zkw</t>
@@ -254,73 +256,22 @@
     <t xml:space="preserve">	2023-11-02 23:29:26</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时21分23秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.39.179.59</t>
+    <t>1小时21分23秒</t>
+  </si>
+  <si>
+    <t>125.39.179.59</t>
   </si>
   <si>
     <t xml:space="preserve">调查对自己的自我认识程度。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	720215098982924288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	试试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-02 21:37:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58分19秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.192.178.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.三个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_003_subj_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	724701248414023680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	收集金豆豆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-02 19:33:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时45分50秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.114.220.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一周内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检测大脑反应速度会受到什么因素的影响，性格、环境等等。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_003_subj_12</t>
+    <t>phase_003_subj_6</t>
   </si>
   <si>
     <t xml:space="preserve">	749636547061747713</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">	博睿</t>
@@ -329,49 +280,28 @@
     <t xml:space="preserve">	2023-11-02 19:36:04</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时11分18秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.138.36.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.半个月内</t>
+    <t>1小时11分18秒</t>
+  </si>
+  <si>
+    <t>36.138.36.47</t>
+  </si>
+  <si>
+    <t>图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t>B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">考验专注力记忆力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	763807579603472386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	用户36779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-03 09:57:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时6分2秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">没有	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_003_subj_9</t>
+    <t>phase_003_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	764077949963210754</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">	孙宇涵</t>
@@ -380,13 +310,16 @@
     <t xml:space="preserve">	2023-11-02 19:34:36</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时46分10秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.183.86.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词汇评估（评估—再认）</t>
+    <t>1小时46分10秒</t>
+  </si>
+  <si>
+    <t>111.183.86.113</t>
+  </si>
+  <si>
+    <t>词汇评估（评估—再认）</t>
+  </si>
+  <si>
+    <t>A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">图形定义有点难，可以适当延长下反应时间	</t>
@@ -395,13 +328,13 @@
     <t xml:space="preserve">了解自己和朋友的品质，研究大众对朋友和自己的看法	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_3</t>
+    <t>phase_003_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	766049476896100353</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">	用户37747</t>
@@ -410,10 +343,10 @@
     <t xml:space="preserve">	2023-11-03 23:29:05</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时28分18秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.118.232.52</t>
+    <t>1小时28分18秒</t>
+  </si>
+  <si>
+    <t>182.118.232.52</t>
   </si>
   <si>
     <t xml:space="preserve">问题反馈的2，这个类似的实验应该是就是SEE_day1，建议加一个无的选项	</t>
@@ -422,56 +355,374 @@
     <t xml:space="preserve">根据不关联的词与图形进行记忆组合，根据练习或者说次数的增多，是否对记忆加深等	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_003_subj_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	770196006494277634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	韩寒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-02 21:24:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时14分18秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223.10.236.233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猜不到	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_003_subj_1</t>
+    <t>phase_003_subj_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -479,17 +730,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -766,19 +1526,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="26" max="26" width="22.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +1626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -940,11 +1705,11 @@
       <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>671</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1023,11 +1788,11 @@
       <c r="Z3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>60</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1106,11 +1871,11 @@
       <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>470</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1189,11 +1954,11 @@
       <c r="Z5" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>148</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1272,11 +2037,11 @@
       <c r="Z6" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>216</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1305,19 +2070,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
@@ -1341,7 +2106,7 @@
         <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1353,27 +2118,27 @@
         <v>47</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>693</v>
+        <v>93</v>
+      </c>
+      <c r="AA7">
+        <v>396</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1382,7 +2147,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1391,16 +2156,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -1421,10 +2186,10 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1436,27 +2201,27 @@
         <v>47</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>584</v>
+        <v>104</v>
+      </c>
+      <c r="AA8">
+        <v>60</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1465,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1477,13 +2242,13 @@
         <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -1504,10 +2269,10 @@
         <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W9" t="s">
         <v>46</v>
@@ -1519,346 +2284,15 @@
         <v>47</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" t="s">
-        <v>116</v>
-      </c>
-      <c r="V10" t="s">
-        <v>116</v>
-      </c>
-      <c r="W10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" t="s">
-        <v>125</v>
-      </c>
-      <c r="V11" t="s">
-        <v>126</v>
-      </c>
-      <c r="W11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" t="s">
-        <v>134</v>
-      </c>
-      <c r="V12" t="s">
-        <v>135</v>
-      </c>
-      <c r="W12" t="s">
-        <v>46</v>
-      </c>
-      <c r="X12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AA9">
         <v>569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" t="s">
-        <v>116</v>
-      </c>
-      <c r="V13" t="s">
-        <v>143</v>
-      </c>
-      <c r="W13" t="s">
-        <v>46</v>
-      </c>
-      <c r="X13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/4.Analysis/Data/raw/day2/phase_003/select_day2_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_003/select_day2_phase_003.xlsx
@@ -1,106 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="114">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day2</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_SRET</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>exit_fullScreen</t>
-  </si>
-  <si>
-    <t>what_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedbackm</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_SRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_fullScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedbackm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	633773426204475392</t>
   </si>
   <si>
-    <t>10</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">	MINGLI</t>
@@ -109,43 +107,43 @@
     <t xml:space="preserve">	2023-11-03 12:09:02</t>
   </si>
   <si>
-    <t>1小时37分26秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>120.204.203.31</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>类似的问卷调查</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">1小时37分26秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.204.203.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类似的问卷调查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">这个问卷少了一个项目我选没参加，只有三个项目，没有无的选项	</t>
@@ -154,19 +152,19 @@
     <t xml:space="preserve">社交关系	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>phase_003_subj_13</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_003_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	633790726911557632</t>
   </si>
   <si>
-    <t>11</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">	XXC</t>
@@ -175,10 +173,10 @@
     <t xml:space="preserve">	2023-11-03 15:39:00</t>
   </si>
   <si>
-    <t>1小时23分1秒</t>
-  </si>
-  <si>
-    <t>120.226.148.210</t>
+    <t xml:space="preserve">1小时23分1秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.226.148.210</t>
   </si>
   <si>
     <t xml:space="preserve">实验有点多，最后测试干扰问卷少了一个选项，我没参加过	</t>
@@ -187,13 +185,13 @@
     <t xml:space="preserve">社交能力	</t>
   </si>
   <si>
-    <t>phase_003_subj_2</t>
+    <t xml:space="preserve">phase_003_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	680051628862078976</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	惠风龢畅</t>
@@ -202,10 +200,10 @@
     <t xml:space="preserve">	2023-11-02 21:24:26</t>
   </si>
   <si>
-    <t>1小时11分30秒</t>
-  </si>
-  <si>
-    <t>111.30.234.213</t>
+    <t xml:space="preserve">1小时11分30秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.30.234.213</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -214,13 +212,13 @@
     <t xml:space="preserve">测试人在安静情况下得反应能力。	</t>
   </si>
   <si>
-    <t>phase_003_subj_10</t>
+    <t xml:space="preserve">phase_003_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	688784182117138432</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">	guozekai</t>
@@ -229,10 +227,10 @@
     <t xml:space="preserve">	2023-11-02 19:13:12</t>
   </si>
   <si>
-    <t>1小时29分41秒</t>
-  </si>
-  <si>
-    <t>27.185.205.123</t>
+    <t xml:space="preserve">1小时29分41秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.185.205.123</t>
   </si>
   <si>
     <t xml:space="preserve">问题反馈中第一题选的否，第二题还让选，这样矛盾了。	</t>
@@ -241,13 +239,13 @@
     <t xml:space="preserve">研究对人们对自己的认知。	</t>
   </si>
   <si>
-    <t>phase_003_subj_4</t>
+    <t xml:space="preserve">phase_003_subj_4</t>
   </si>
   <si>
     <t xml:space="preserve">	718581844601208832</t>
   </si>
   <si>
-    <t>8</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">	zkw</t>
@@ -256,22 +254,22 @@
     <t xml:space="preserve">	2023-11-02 23:29:26</t>
   </si>
   <si>
-    <t>1小时21分23秒</t>
-  </si>
-  <si>
-    <t>125.39.179.59</t>
+    <t xml:space="preserve">1小时21分23秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.39.179.59</t>
   </si>
   <si>
     <t xml:space="preserve">调查对自己的自我认识程度。	</t>
   </si>
   <si>
-    <t>phase_003_subj_6</t>
+    <t xml:space="preserve">phase_003_subj_6</t>
   </si>
   <si>
     <t xml:space="preserve">	749636547061747713</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	博睿</t>
@@ -280,28 +278,55 @@
     <t xml:space="preserve">	2023-11-02 19:36:04</t>
   </si>
   <si>
-    <t>1小时11分18秒</t>
-  </si>
-  <si>
-    <t>36.138.36.47</t>
-  </si>
-  <si>
-    <t>图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t>B.半个月内</t>
+    <t xml:space="preserve">1小时11分18秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.138.36.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">考验专注力记忆力	</t>
   </si>
   <si>
-    <t>phase_003_subj_8</t>
+    <t xml:space="preserve">phase_003_subj_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	763807579603472386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	用户36779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-03 09:57:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时6分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.192.178.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没有	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_003_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	764077949963210754</t>
   </si>
   <si>
-    <t>3</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">	孙宇涵</t>
@@ -310,16 +335,16 @@
     <t xml:space="preserve">	2023-11-02 19:34:36</t>
   </si>
   <si>
-    <t>1小时46分10秒</t>
-  </si>
-  <si>
-    <t>111.183.86.113</t>
-  </si>
-  <si>
-    <t>词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t>A.一周内</t>
+    <t xml:space="preserve">1小时46分10秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.183.86.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词汇评估（评估—再认）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">图形定义有点难，可以适当延长下反应时间	</t>
@@ -328,13 +353,13 @@
     <t xml:space="preserve">了解自己和朋友的品质，研究大众对朋友和自己的看法	</t>
   </si>
   <si>
-    <t>phase_003_subj_3</t>
+    <t xml:space="preserve">phase_003_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	766049476896100353</t>
   </si>
   <si>
-    <t>12</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">	用户37747</t>
@@ -343,10 +368,10 @@
     <t xml:space="preserve">	2023-11-03 23:29:05</t>
   </si>
   <si>
-    <t>1小时28分18秒</t>
-  </si>
-  <si>
-    <t>182.118.232.52</t>
+    <t xml:space="preserve">1小时28分18秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.118.232.52</t>
   </si>
   <si>
     <t xml:space="preserve">问题反馈的2，这个类似的实验应该是就是SEE_day1，建议加一个无的选项	</t>
@@ -355,374 +380,32 @@
     <t xml:space="preserve">根据不关联的词与图形进行记忆组合，根据练习或者说次数的增多，是否对记忆加深等	</t>
   </si>
   <si>
-    <t>phase_003_subj_11</t>
+    <t xml:space="preserve">phase_003_subj_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -730,526 +413,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1526,24 +700,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="26" max="26" width="22.4545454545455" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1705,11 +874,11 @@
       <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>671</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1788,11 +957,11 @@
       <c r="Z3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1871,11 +1040,11 @@
       <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1954,11 +1123,11 @@
       <c r="Z5" t="s">
         <v>75</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2037,11 +1206,11 @@
       <c r="Z6" t="s">
         <v>83</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2120,11 +1289,11 @@
       <c r="Z7" t="s">
         <v>93</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2153,19 +1322,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -2186,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -2201,27 +1370,27 @@
         <v>47</v>
       </c>
       <c r="Z8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="AA8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -2230,7 +1399,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -2239,16 +1408,16 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
         <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -2286,13 +1455,95 @@
       <c r="Z9" t="s">
         <v>113</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA10" t="n">
         <v>569</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>